--- a/db/changelog/templates-3.5/ndfl/consolidated_rnu_ndfl/v2016/report.xlsx
+++ b/db/changelog/templates-3.5/ndfl/consolidated_rnu_ndfl/v2016/report.xlsx
@@ -86,7 +86,7 @@
     </r>
   </si>
   <si>
-    <t>ТБ-источник</t>
+    <t>ТБ форм-источников</t>
   </si>
 </sst>
 </file>
@@ -163,18 +163,18 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,7 +481,7 @@
   <dimension ref="B1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -496,35 +496,35 @@
   <sheetData>
     <row r="1" spans="2:8" ht="9" customHeight="1"/>
     <row r="2" spans="2:8" ht="31.5" customHeight="1">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="2:8" ht="30" customHeight="1">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
